--- a/diagram_data/2021_diagram_data.xlsx
+++ b/diagram_data/2021_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,3534 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P17_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F5_P32_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P15_Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P11_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P12_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P15_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P22_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P2_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P14_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F5_P16_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P12_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P21_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P8_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P30_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P10_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P12_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P4_Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.png</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P18_Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.png</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P13_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P18_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P29_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F5_P36_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P10_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P10_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P28_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P29_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P24_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P11_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P15_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P17_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P24_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P25_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F5_P27_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F6_P30_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F7_P32_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P7_Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.png</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P28_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P30_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P20_Mikkelsen_2021_HR_Looking over your shoulder.png</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F6_P26_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P4_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P5_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P10_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P22_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P8_Reypens, Lievens &amp; Blazevic_2021_OrgStudies_Hybrid Orchestration in Multi-stakeholder Innovation Networks.png</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P18_Scholz &amp; Ingold_2021_HR_Activating hte Ideal JobSeeker Experiences of individuals with Mental Health Conditions on the UK Work Programme.png</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P3_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F4_P20_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F6_P25_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F7_P25_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F8_P18_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P13_Vallaster et al._2021_OrgStudies_Serving Multiple Masters - the Role of micro-foundations of dynamic capabilities in addressing tensions in for-profit hybrid organizations.png</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P18_Vardaman et al._2021_HR_Reframing Childhood Obesity.png</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P14_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P20_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P14_Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.png</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P9_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P10_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P11_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P8_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F2_P11_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F3_P17_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P27_Bloom et al._2021_ASQ_Stories of Calling - How Called Professionals Construct Narrative Identities.png</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P13_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P11_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P16_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P13_Fiedler, Casey &amp; Fath_2021_HR_Transnational Employee Voice and Knowledge Exchange.png</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P10_Harvey &amp; Mueller_2021_OrgSci_Staying Alive Toward a Diverging Consensus Model of Overcoming a Bias Against Novelty in Groups.png</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P7_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P35_Jiang_2021_ASQ_Sustaining Meaningful Work in a Crisis - Adopting and Conveying a Situational Purpose.png</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P11_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P11_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P9_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P13_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P5_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P12_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P10_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P8_Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.png</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P8_Ruebottom &amp; Toubiana_2021_AMJ_Constraints and Opportunities of Stigma Enterpreneurial Emancipation in the Sex Industry.png</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P32_Satterstrom et al._2021_ASQ_The Voice Cultivation Process.png</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P13_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P14_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P6_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>final_figures/2021/F1_P29_Wright et al._2021_ASQ_Maintaining Places of Social Inclusion - Ebola and the Emergency Department.png</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
